--- a/bin/reviews/source/UA.xlsx
+++ b/bin/reviews/source/UA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="90">
   <si>
     <t>name</t>
   </si>
@@ -229,88 +229,62 @@
     <t>Криптовалюты</t>
   </si>
   <si>
-    <t>a069</t>
-  </si>
-  <si>
-    <t>069.net.ua</t>
-  </si>
-  <si>
-    <t>Одежда обувь</t>
-  </si>
-  <si>
-    <t>olesya Guzun</t>
-  </si>
-  <si>
-    <t>Супер магазин! Отличное обслуживание и девочки-консультанты!</t>
-  </si>
-  <si>
-    <t>Назар Єдаменко</t>
-  </si>
-  <si>
-    <t>Найкращий магазин. Найкращі ціни. Супер вибір. Супер персонал</t>
-  </si>
-  <si>
-    <t>Nadiya Pokrasyon</t>
-  </si>
-  <si>
-    <t>Olek Bojko</t>
-  </si>
-  <si>
-    <t>Очень доволен! Несколько раз покупал здесь подарки знакомым, всегда удачно. Даже если не было точных размеров, менеджеры всегда помогали с выбором. Один раз пришлось заказать на выбор из трех штук. Доставка всегда в срок. Рекомендую этот магазин!</t>
-  </si>
-  <si>
-    <t>Анна Теплова</t>
-  </si>
-  <si>
-    <t>Завжди дуже приємне враження від спілкування з менеджерами магазину. Фахові поради, швидке обслуговування. Гнучка політика знижок, діють накопичувальні знижки. За два замовлення отримала максимальну знижку, приємно. Новинки з’являються практично відразу з їх появою на сторінках виробників. Мені подобається бути в тренді. Радує наявність україномовної версії веб-сторінки. Рекомендую цей магазин.</t>
-  </si>
-  <si>
-    <t>Roman S</t>
-  </si>
-  <si>
-    <t>Товар отправили быстро, но были трудности с организацией обмена, который четко указан на сайте.   Если уверены в своем размере 100%,  что все точно подойдет  - заказывайте смело, а обмен - танцы с бубнами вышел.  Но таки обменяли,  спасибо и на этом</t>
-  </si>
-  <si>
-    <t>Соболев Соболь</t>
-  </si>
-  <si>
-    <t>Хороший ассортимент, шикарное обслуживание и приемлемые цены) Большое спасибо</t>
-  </si>
-  <si>
-    <t>Арина Фокс</t>
-  </si>
-  <si>
-    <t>Ирина Коваль</t>
-  </si>
-  <si>
-    <t>Хороший магазин, отличные отзывчивые сотрудники, работают очень быстро - не успела сделать заказ, тут же звонят и сообщают о доставке. Отличное соотношение цены и качества.  Все, что заказала, подошло идеально (т.е. размеры совпадают, идут размер в размер), великолепно упаковано. Всем рекомендую!</t>
-  </si>
-  <si>
-    <t>Юлико Возная</t>
-  </si>
-  <si>
-    <t>Неоднократно делала заказы в магазине 069 и никогда не было разочарований! Качество, размеры, ассортимент, цены - все очень радует. Обслуживание  на высоте! Все оперативно, сотрудники вежливые! Побалуйте себя любимую !!! Рекомендую!</t>
-  </si>
-  <si>
-    <t>Anna Rostotskaya</t>
-  </si>
-  <si>
-    <t>Хуже интернет-магазина даже вообразить сложно! Заказ оплатила в течении 5 минут после предоставления реквизитов, обьяснив что заказ важен и нужен на подарок (впереди была неделя)  и дальше началось: 1) Никто об отправке даже и не подумал сообщать, пока сама не связалась. Наконец предоставили номер декларации. 2) После отслеживания трека (а отправка была укрпочтой) указано, что посылка вернулась на отделение отправки и там так и зависла.После просьбы разобраться и уточнить куда же делся комплект, пообещали перезвонить в очень не дружелюбной форме. Звонка так и не последовало спустя 2 дня и неоднократных попыток мною связаться. 3)В последствии просто мой телефон поставился в игнор и дозвониться я не смогла, пока не перезвонила с чужого номера и О,ЭВРИКА! С первого раза взяли трубку. Заказ так и не получила спустя неделю! В общем бизнес по-украински! Органы защиты прав потребителей по ним явно плачут.</t>
-  </si>
-  <si>
-    <t>Victor Porokhov</t>
-  </si>
-  <si>
-    <t>Отличный интернет-магазин нижнего белья</t>
-  </si>
-  <si>
-    <t>Otar Devdariani</t>
-  </si>
-  <si>
-    <t>Александр Вапр</t>
-  </si>
-  <si>
-    <t>Anastasiya Lebedinskaya</t>
+    <t>057dom</t>
+  </si>
+  <si>
+    <t>057dom.com</t>
+  </si>
+  <si>
+    <t>Строительство ремонт</t>
+  </si>
+  <si>
+    <t>Андрей Юраков</t>
+  </si>
+  <si>
+    <t>Оксана Ч.</t>
+  </si>
+  <si>
+    <t>Приятные в общении. Собираюсь заказать у них домокомплект. А дальше посмотрим)</t>
+  </si>
+  <si>
+    <t>See Inside</t>
+  </si>
+  <si>
+    <t>Квалифицированный персонал.Все нюансы разлаживают по полкам.Всем рекоммендую!
+Поддержка 24/7 .Роман Алексеевич - настоящий профи!!!</t>
+  </si>
+  <si>
+    <t>Роман Жуга</t>
+  </si>
+  <si>
+    <t>андрей бойко</t>
+  </si>
+  <si>
+    <t>Сергей</t>
+  </si>
+  <si>
+    <t>Симпатично выглядит????</t>
+  </si>
+  <si>
+    <t>Яна Медведева</t>
+  </si>
+  <si>
+    <t>Алексей Лесовой</t>
+  </si>
+  <si>
+    <t>Ярослав Карпенко</t>
+  </si>
+  <si>
+    <t>Наталья Левченко</t>
+  </si>
+  <si>
+    <t>2 Оксана Ч.</t>
+  </si>
+  <si>
+    <t>2 See Inside</t>
+  </si>
+  <si>
+    <t>2 Сергей</t>
   </si>
 </sst>
 </file>
@@ -372,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -380,6 +354,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -682,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BO3"/>
+  <dimension ref="A1:BO4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -695,7 +670,7 @@
     <col min="4" max="4" width="22" customWidth="1"/>
     <col min="5" max="5" width="22.7109375" customWidth="1"/>
     <col min="6" max="6" width="25.5703125" customWidth="1"/>
-    <col min="7" max="7" width="79.85546875" customWidth="1"/>
+    <col min="7" max="7" width="43.42578125" customWidth="1"/>
     <col min="8" max="8" width="23.140625" customWidth="1"/>
     <col min="9" max="9" width="20.85546875" customWidth="1"/>
     <col min="10" max="10" width="24.5703125" customWidth="1"/>
@@ -1042,123 +1017,99 @@
       <c r="F3" s="3">
         <v>5</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3">
+        <v>5</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I3" s="3">
-        <v>5</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3">
+        <v>5</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L3" s="3">
-        <v>5</v>
-      </c>
-      <c r="M3" s="3"/>
       <c r="N3" s="3" t="s">
         <v>79</v>
       </c>
       <c r="O3" s="3">
         <v>5</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3">
+        <v>5</v>
+      </c>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="R3" s="3">
-        <v>5</v>
-      </c>
-      <c r="S3" s="3" t="s">
+      <c r="U3" s="3">
+        <v>5</v>
+      </c>
+      <c r="V3" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="U3" s="3">
-        <v>4</v>
-      </c>
-      <c r="V3" s="3" t="s">
+      <c r="X3" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="X3" s="3">
-        <v>5</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="AA3" s="3">
         <v>5</v>
       </c>
       <c r="AB3" s="3"/>
       <c r="AC3" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AD3" s="3">
         <v>5</v>
       </c>
-      <c r="AE3" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="AE3" s="3"/>
       <c r="AF3" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AG3" s="3">
         <v>5</v>
       </c>
-      <c r="AH3" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AI3" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
       <c r="AJ3" s="3">
-        <v>1</v>
-      </c>
-      <c r="AK3" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AL3" s="3" t="s">
-        <v>94</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
       <c r="AM3" s="3">
-        <v>5</v>
-      </c>
-      <c r="AN3" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AO3" s="3" t="s">
-        <v>96</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
       <c r="AP3" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AQ3" s="3"/>
-      <c r="AR3" s="3" t="s">
-        <v>97</v>
-      </c>
+      <c r="AR3" s="3"/>
       <c r="AS3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="3"/>
-      <c r="AU3" s="3" t="s">
-        <v>98</v>
-      </c>
+      <c r="AU3" s="3"/>
       <c r="AV3" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AW3" s="3"/>
       <c r="AX3" s="3"/>
@@ -1191,6 +1142,151 @@
         <v>0</v>
       </c>
       <c r="BO3" s="3"/>
+    </row>
+    <row r="4" spans="1:67" s="4" customFormat="1">
+      <c r="A4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="3">
+        <v>5</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" s="3">
+        <v>5</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="L4" s="3">
+        <v>5</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="O4" s="3">
+        <v>5</v>
+      </c>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R4" s="3">
+        <v>5</v>
+      </c>
+      <c r="S4" s="3"/>
+      <c r="T4" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="U4" s="3">
+        <v>5</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="X4" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>5</v>
+      </c>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>5</v>
+      </c>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="3"/>
+      <c r="AV4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="3"/>
+      <c r="AX4" s="3"/>
+      <c r="AY4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="3"/>
+      <c r="BA4" s="3"/>
+      <c r="BB4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="3"/>
+      <c r="BD4" s="3"/>
+      <c r="BE4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF4" s="3"/>
+      <c r="BG4" s="3"/>
+      <c r="BH4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI4" s="3"/>
+      <c r="BJ4" s="3"/>
+      <c r="BK4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL4" s="3"/>
+      <c r="BM4" s="3"/>
+      <c r="BN4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/reviews/source/UA.xlsx
+++ b/bin/reviews/source/UA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="120">
   <si>
     <t>name</t>
   </si>
@@ -285,6 +285,96 @@
   </si>
   <si>
     <t>2 Сергей</t>
+  </si>
+  <si>
+    <t>1 Вересня</t>
+  </si>
+  <si>
+    <t>1veresnya.com</t>
+  </si>
+  <si>
+    <t>Товары услуги для офиса</t>
+  </si>
+  <si>
+    <t>Nataly M</t>
+  </si>
+  <si>
+    <t>Света Кладина</t>
+  </si>
+  <si>
+    <t>Не помню.....</t>
+  </si>
+  <si>
+    <t>Олег Юрченко</t>
+  </si>
+  <si>
+    <t>Наталья Завезион</t>
+  </si>
+  <si>
+    <t>Дмитрий Субботин</t>
+  </si>
+  <si>
+    <t>Покупал тут замечательные тетрадки!</t>
+  </si>
+  <si>
+    <t>Anatoliy Sid</t>
+  </si>
+  <si>
+    <t>Psyholog Devil</t>
+  </si>
+  <si>
+    <t>Alyona Plyntyuk</t>
+  </si>
+  <si>
+    <t>Irina Yacenko</t>
+  </si>
+  <si>
+    <t>Все очень хорошо, но не работает терминал</t>
+  </si>
+  <si>
+    <t>Федор Кокляев</t>
+  </si>
+  <si>
+    <t>Очень крутой бренд, делающий качественную канцелярию, рюкзаки, а также разные школьные принадлежности. Мы постоянно покупаем только от этого производителя. Вот купили новый ранец для доченьки в школу. Он ортопедический и с удобными лямками, так что ходить за знаниями будет комфортно и безопасно для спины.</t>
+  </si>
+  <si>
+    <t>Виталий Горн</t>
+  </si>
+  <si>
+    <t>Приобрели фирменный пенал 1 Вересня в форме книги. Он качественно сделан, вместительный и не имеет никакого стороннего запаха. Вот собственно фото.</t>
+  </si>
+  <si>
+    <t>Сергей Донец</t>
+  </si>
+  <si>
+    <t>Купил сыну в 1 класс рюкзак Гарвард от 1 вересня. Привлек дизайн (нейтральный) и сразу купил из этой же серии пенал и сумку для обуви. Радует что украинская компания делает такое высокое качество продукции, и насколько понял с бирок это оригинальный лицензионный дизайн от Гарварда. Рекомендую.                  +2</t>
+  </si>
+  <si>
+    <t>gotuemo vdoma_z</t>
+  </si>
+  <si>
+    <t>Мы для дочери купили вот такой школьный рюкзак каркасного типа с ортопедической спинкой и мягкими лямками. Все продумано так, что ранец разгружает спину, поэтому ребенок не чувствует на позвонок никакой нагрузки. Рюкзаки такого типа очень удобны для детей младших классов, так как ребенок открывая портфель видит все учебники и тетради, которые не мнутся. Ну и конечно дизайн, школьный ранец красивый, с блестками и интересным принтом, как раз для маленькой принцессы.</t>
+  </si>
+  <si>
+    <t>Anet</t>
+  </si>
+  <si>
+    <t>2veresnya.com</t>
+  </si>
+  <si>
+    <t>2 Вересня</t>
+  </si>
+  <si>
+    <t>2 Nataly M</t>
+  </si>
+  <si>
+    <t>2 Света Кладина</t>
+  </si>
+  <si>
+    <t>2 Олег Юрченко</t>
+  </si>
+  <si>
+    <t>2 Наталья Завезион</t>
   </si>
 </sst>
 </file>
@@ -346,7 +436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -355,6 +445,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -657,17 +749,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BO4"/>
+  <dimension ref="A1:BO6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="4" max="4" width="40.140625" customWidth="1"/>
     <col min="5" max="5" width="22.7109375" customWidth="1"/>
     <col min="6" max="6" width="25.5703125" customWidth="1"/>
     <col min="7" max="7" width="43.42578125" customWidth="1"/>
@@ -999,10 +1092,10 @@
       <c r="BO2" s="2"/>
     </row>
     <row r="3" spans="1:67" s="4" customFormat="1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>72</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1144,7 +1237,7 @@
       <c r="BO3" s="3"/>
     </row>
     <row r="4" spans="1:67" s="4" customFormat="1">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1287,6 +1380,328 @@
         <v>0</v>
       </c>
       <c r="BO4" s="3"/>
+    </row>
+    <row r="5" spans="1:67">
+      <c r="A5" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="6">
+        <v>5</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" s="6">
+        <v>4</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="L5" s="6">
+        <v>5</v>
+      </c>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="O5" s="6">
+        <v>5</v>
+      </c>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="R5" s="6">
+        <v>5</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="U5" s="6">
+        <v>5</v>
+      </c>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="X5" s="6">
+        <v>5</v>
+      </c>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA5" s="6">
+        <v>5</v>
+      </c>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD5" s="6">
+        <v>5</v>
+      </c>
+      <c r="AE5" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF5" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG5" s="6">
+        <v>5</v>
+      </c>
+      <c r="AH5" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI5" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ5" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK5" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL5" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM5" s="6">
+        <v>5</v>
+      </c>
+      <c r="AN5" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO5" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP5" s="6">
+        <v>5</v>
+      </c>
+      <c r="AQ5" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR5" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS5" s="6">
+        <v>5</v>
+      </c>
+      <c r="AT5" s="6"/>
+      <c r="AU5" s="6"/>
+      <c r="AV5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="6"/>
+      <c r="AX5" s="6"/>
+      <c r="AY5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="6"/>
+      <c r="BA5" s="6"/>
+      <c r="BB5" s="6">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="6"/>
+      <c r="BD5" s="6"/>
+      <c r="BE5" s="6">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="6"/>
+      <c r="BG5" s="6"/>
+      <c r="BH5" s="6">
+        <v>0</v>
+      </c>
+      <c r="BI5" s="6"/>
+      <c r="BJ5" s="6"/>
+      <c r="BK5" s="6">
+        <v>0</v>
+      </c>
+      <c r="BL5" s="6"/>
+      <c r="BM5" s="6"/>
+      <c r="BN5" s="6">
+        <v>0</v>
+      </c>
+      <c r="BO5" s="6"/>
+    </row>
+    <row r="6" spans="1:67">
+      <c r="A6" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" s="6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="I6" s="6">
+        <v>4</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L6" s="6">
+        <v>5</v>
+      </c>
+      <c r="M6" s="6"/>
+      <c r="N6" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="O6" s="6">
+        <v>5</v>
+      </c>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="R6" s="6">
+        <v>5</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="U6" s="6">
+        <v>5</v>
+      </c>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="X6" s="6">
+        <v>5</v>
+      </c>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA6" s="6">
+        <v>5</v>
+      </c>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD6" s="6">
+        <v>5</v>
+      </c>
+      <c r="AE6" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF6" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG6" s="6">
+        <v>5</v>
+      </c>
+      <c r="AH6" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI6" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ6" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK6" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL6" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM6" s="6">
+        <v>5</v>
+      </c>
+      <c r="AN6" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO6" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP6" s="6">
+        <v>5</v>
+      </c>
+      <c r="AQ6" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR6" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS6" s="6">
+        <v>5</v>
+      </c>
+      <c r="AT6" s="6"/>
+      <c r="AU6" s="6"/>
+      <c r="AV6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="6"/>
+      <c r="AX6" s="6"/>
+      <c r="AY6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="6"/>
+      <c r="BA6" s="6"/>
+      <c r="BB6" s="6">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="6"/>
+      <c r="BD6" s="6"/>
+      <c r="BE6" s="6">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="6"/>
+      <c r="BG6" s="6"/>
+      <c r="BH6" s="6">
+        <v>0</v>
+      </c>
+      <c r="BI6" s="6"/>
+      <c r="BJ6" s="6"/>
+      <c r="BK6" s="6">
+        <v>0</v>
+      </c>
+      <c r="BL6" s="6"/>
+      <c r="BM6" s="6"/>
+      <c r="BN6" s="6">
+        <v>0</v>
+      </c>
+      <c r="BO6" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/reviews/source/UA.xlsx
+++ b/bin/reviews/source/UA.xlsx
@@ -751,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BO6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -763,7 +763,7 @@
     <col min="4" max="4" width="40.140625" customWidth="1"/>
     <col min="5" max="5" width="22.7109375" customWidth="1"/>
     <col min="6" max="6" width="25.5703125" customWidth="1"/>
-    <col min="7" max="7" width="43.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" customWidth="1"/>
     <col min="8" max="8" width="23.140625" customWidth="1"/>
     <col min="9" max="9" width="20.85546875" customWidth="1"/>
     <col min="10" max="10" width="24.5703125" customWidth="1"/>
@@ -1260,7 +1260,7 @@
         <v>87</v>
       </c>
       <c r="I4" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>76</v>

--- a/bin/reviews/source/UA.xlsx
+++ b/bin/reviews/source/UA.xlsx
@@ -7,14 +7,16 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист2" sheetId="2" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="3" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="126">
   <si>
     <t>name</t>
   </si>
@@ -375,6 +377,24 @@
   </si>
   <si>
     <t>2 Наталья Завезион</t>
+  </si>
+  <si>
+    <t>4 Света Кладина</t>
+  </si>
+  <si>
+    <t>4 Олег Юрченко</t>
+  </si>
+  <si>
+    <t>3 See Inside</t>
+  </si>
+  <si>
+    <t>3 Оксана Ч.</t>
+  </si>
+  <si>
+    <t>3 Сергей</t>
+  </si>
+  <si>
+    <t>4 Покупал тут замечательные тетрадки!</t>
   </si>
 </sst>
 </file>
@@ -749,10 +769,1118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BO7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" customWidth="1"/>
+    <col min="17" max="17" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:67">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:67">
+      <c r="A2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="2"/>
+      <c r="AR2" s="2"/>
+      <c r="AS2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="2"/>
+      <c r="AU2" s="2"/>
+      <c r="AV2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="2"/>
+      <c r="AX2" s="2"/>
+      <c r="AY2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="2"/>
+      <c r="BA2" s="2"/>
+      <c r="BB2" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC2" s="2"/>
+      <c r="BD2" s="2"/>
+      <c r="BE2" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF2" s="2"/>
+      <c r="BG2" s="2"/>
+      <c r="BH2" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI2" s="2"/>
+      <c r="BJ2" s="2"/>
+      <c r="BK2" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL2" s="2"/>
+      <c r="BM2" s="2"/>
+      <c r="BN2" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO2" s="2"/>
+    </row>
+    <row r="3" spans="1:67" s="4" customFormat="1">
+      <c r="A3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="3">
+        <v>5</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" s="3">
+        <v>5</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L3" s="3">
+        <v>5</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="O3" s="3">
+        <v>5</v>
+      </c>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R3" s="3">
+        <v>5</v>
+      </c>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="U3" s="3">
+        <v>5</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="X3" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>5</v>
+      </c>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>5</v>
+      </c>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="3"/>
+      <c r="AX3" s="3"/>
+      <c r="AY3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="3"/>
+      <c r="BA3" s="3"/>
+      <c r="BB3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC3" s="3"/>
+      <c r="BD3" s="3"/>
+      <c r="BE3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF3" s="3"/>
+      <c r="BG3" s="3"/>
+      <c r="BH3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI3" s="3"/>
+      <c r="BJ3" s="3"/>
+      <c r="BK3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL3" s="3"/>
+      <c r="BM3" s="3"/>
+      <c r="BN3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="3"/>
+    </row>
+    <row r="4" spans="1:67" s="4" customFormat="1">
+      <c r="A4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="3">
+        <v>5</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" s="3">
+        <v>2</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="L4" s="3">
+        <v>5</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="O4" s="3">
+        <v>5</v>
+      </c>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R4" s="3">
+        <v>5</v>
+      </c>
+      <c r="S4" s="3"/>
+      <c r="T4" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="U4" s="3">
+        <v>5</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="X4" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>5</v>
+      </c>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>5</v>
+      </c>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="3"/>
+      <c r="AV4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="3"/>
+      <c r="AX4" s="3"/>
+      <c r="AY4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="3"/>
+      <c r="BA4" s="3"/>
+      <c r="BB4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="3"/>
+      <c r="BD4" s="3"/>
+      <c r="BE4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF4" s="3"/>
+      <c r="BG4" s="3"/>
+      <c r="BH4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI4" s="3"/>
+      <c r="BJ4" s="3"/>
+      <c r="BK4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL4" s="3"/>
+      <c r="BM4" s="3"/>
+      <c r="BN4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO4" s="3"/>
+    </row>
+    <row r="5" spans="1:67" s="4" customFormat="1">
+      <c r="A5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="3">
+        <v>5</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I5" s="3">
+        <v>5</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="L5" s="3">
+        <v>5</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" s="3">
+        <v>5</v>
+      </c>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R5" s="3">
+        <v>5</v>
+      </c>
+      <c r="S5" s="3"/>
+      <c r="T5" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="U5" s="3">
+        <v>5</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="X5" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>5</v>
+      </c>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>5</v>
+      </c>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="3"/>
+      <c r="AP5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="3"/>
+      <c r="AR5" s="3"/>
+      <c r="AS5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="3"/>
+      <c r="AU5" s="3"/>
+      <c r="AV5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="3"/>
+      <c r="AX5" s="3"/>
+      <c r="AY5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="3"/>
+      <c r="BA5" s="3"/>
+      <c r="BB5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="3"/>
+      <c r="BD5" s="3"/>
+      <c r="BE5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="3"/>
+      <c r="BG5" s="3"/>
+      <c r="BH5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI5" s="3"/>
+      <c r="BJ5" s="3"/>
+      <c r="BK5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL5" s="3"/>
+      <c r="BM5" s="3"/>
+      <c r="BN5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO5" s="3"/>
+    </row>
+    <row r="6" spans="1:67">
+      <c r="A6" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="6">
+        <v>4</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="L6" s="6">
+        <v>5</v>
+      </c>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="O6" s="6">
+        <v>5</v>
+      </c>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="R6" s="6">
+        <v>5</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="U6" s="6">
+        <v>5</v>
+      </c>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="X6" s="6">
+        <v>5</v>
+      </c>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA6" s="6">
+        <v>5</v>
+      </c>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD6" s="6">
+        <v>5</v>
+      </c>
+      <c r="AE6" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF6" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG6" s="6">
+        <v>5</v>
+      </c>
+      <c r="AH6" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI6" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ6" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK6" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL6" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM6" s="6">
+        <v>5</v>
+      </c>
+      <c r="AN6" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO6" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP6" s="6">
+        <v>5</v>
+      </c>
+      <c r="AQ6" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR6" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS6" s="6">
+        <v>5</v>
+      </c>
+      <c r="AT6" s="6"/>
+      <c r="AU6" s="6"/>
+      <c r="AV6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="6"/>
+      <c r="AX6" s="6"/>
+      <c r="AY6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="6"/>
+      <c r="BA6" s="6"/>
+      <c r="BB6" s="6">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="6"/>
+      <c r="BD6" s="6"/>
+      <c r="BE6" s="6">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="6"/>
+      <c r="BG6" s="6"/>
+      <c r="BH6" s="6">
+        <v>0</v>
+      </c>
+      <c r="BI6" s="6"/>
+      <c r="BJ6" s="6"/>
+      <c r="BK6" s="6">
+        <v>0</v>
+      </c>
+      <c r="BL6" s="6"/>
+      <c r="BM6" s="6"/>
+      <c r="BN6" s="6">
+        <v>0</v>
+      </c>
+      <c r="BO6" s="6"/>
+    </row>
+    <row r="7" spans="1:67">
+      <c r="A7" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="6">
+        <v>5</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I7" s="6">
+        <v>5</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L7" s="6">
+        <v>5</v>
+      </c>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="O7" s="6">
+        <v>5</v>
+      </c>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="R7" s="6">
+        <v>5</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="U7" s="6">
+        <v>5</v>
+      </c>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="X7" s="6">
+        <v>5</v>
+      </c>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA7" s="6">
+        <v>5</v>
+      </c>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD7" s="6">
+        <v>5</v>
+      </c>
+      <c r="AE7" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF7" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG7" s="6">
+        <v>5</v>
+      </c>
+      <c r="AH7" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI7" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ7" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK7" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL7" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM7" s="6">
+        <v>5</v>
+      </c>
+      <c r="AN7" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO7" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP7" s="6">
+        <v>5</v>
+      </c>
+      <c r="AQ7" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR7" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS7" s="6">
+        <v>5</v>
+      </c>
+      <c r="AT7" s="6"/>
+      <c r="AU7" s="6"/>
+      <c r="AV7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="6"/>
+      <c r="AX7" s="6"/>
+      <c r="AY7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="6"/>
+      <c r="BA7" s="6"/>
+      <c r="BB7" s="6">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="6"/>
+      <c r="BD7" s="6"/>
+      <c r="BE7" s="6">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="6"/>
+      <c r="BG7" s="6"/>
+      <c r="BH7" s="6">
+        <v>0</v>
+      </c>
+      <c r="BI7" s="6"/>
+      <c r="BJ7" s="6"/>
+      <c r="BK7" s="6">
+        <v>0</v>
+      </c>
+      <c r="BL7" s="6"/>
+      <c r="BM7" s="6"/>
+      <c r="BN7" s="6">
+        <v>0</v>
+      </c>
+      <c r="BO7" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BO6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1706,4 +2834,1098 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BO7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:67">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:67">
+      <c r="A2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="2"/>
+      <c r="AR2" s="2"/>
+      <c r="AS2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="2"/>
+      <c r="AU2" s="2"/>
+      <c r="AV2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="2"/>
+      <c r="AX2" s="2"/>
+      <c r="AY2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="2"/>
+      <c r="BA2" s="2"/>
+      <c r="BB2" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC2" s="2"/>
+      <c r="BD2" s="2"/>
+      <c r="BE2" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF2" s="2"/>
+      <c r="BG2" s="2"/>
+      <c r="BH2" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI2" s="2"/>
+      <c r="BJ2" s="2"/>
+      <c r="BK2" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL2" s="2"/>
+      <c r="BM2" s="2"/>
+      <c r="BN2" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO2" s="2"/>
+    </row>
+    <row r="3" spans="1:67" s="4" customFormat="1">
+      <c r="A3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="3">
+        <v>5</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" s="3">
+        <v>5</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L3" s="3">
+        <v>5</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="O3" s="3">
+        <v>5</v>
+      </c>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R3" s="3">
+        <v>5</v>
+      </c>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="U3" s="3">
+        <v>5</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="X3" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>5</v>
+      </c>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>5</v>
+      </c>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="3"/>
+      <c r="AX3" s="3"/>
+      <c r="AY3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="3"/>
+      <c r="BA3" s="3"/>
+      <c r="BB3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC3" s="3"/>
+      <c r="BD3" s="3"/>
+      <c r="BE3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF3" s="3"/>
+      <c r="BG3" s="3"/>
+      <c r="BH3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI3" s="3"/>
+      <c r="BJ3" s="3"/>
+      <c r="BK3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL3" s="3"/>
+      <c r="BM3" s="3"/>
+      <c r="BN3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="3"/>
+    </row>
+    <row r="4" spans="1:67" s="4" customFormat="1">
+      <c r="A4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="3">
+        <v>5</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" s="3">
+        <v>6</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="L4" s="3">
+        <v>5</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="O4" s="3">
+        <v>5</v>
+      </c>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R4" s="3">
+        <v>5</v>
+      </c>
+      <c r="S4" s="3"/>
+      <c r="T4" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="U4" s="3">
+        <v>5</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="X4" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>5</v>
+      </c>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>5</v>
+      </c>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="3"/>
+      <c r="AV4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="3"/>
+      <c r="AX4" s="3"/>
+      <c r="AY4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="3"/>
+      <c r="BA4" s="3"/>
+      <c r="BB4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="3"/>
+      <c r="BD4" s="3"/>
+      <c r="BE4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF4" s="3"/>
+      <c r="BG4" s="3"/>
+      <c r="BH4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI4" s="3"/>
+      <c r="BJ4" s="3"/>
+      <c r="BK4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL4" s="3"/>
+      <c r="BM4" s="3"/>
+      <c r="BN4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO4" s="3"/>
+    </row>
+    <row r="5" spans="1:67" s="4" customFormat="1">
+      <c r="A5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="3">
+        <v>5</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" s="3">
+        <v>5</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" s="3">
+        <v>5</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" s="3">
+        <v>5</v>
+      </c>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R5" s="3">
+        <v>5</v>
+      </c>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="U5" s="3">
+        <v>5</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="X5" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>5</v>
+      </c>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>5</v>
+      </c>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="3"/>
+      <c r="AP5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="3"/>
+      <c r="AR5" s="3"/>
+      <c r="AS5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="3"/>
+      <c r="AU5" s="3"/>
+      <c r="AV5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="3"/>
+      <c r="AX5" s="3"/>
+      <c r="AY5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="3"/>
+      <c r="BA5" s="3"/>
+      <c r="BB5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="3"/>
+      <c r="BD5" s="3"/>
+      <c r="BE5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="3"/>
+      <c r="BG5" s="3"/>
+      <c r="BH5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI5" s="3"/>
+      <c r="BJ5" s="3"/>
+      <c r="BK5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL5" s="3"/>
+      <c r="BM5" s="3"/>
+      <c r="BN5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO5" s="3"/>
+    </row>
+    <row r="6" spans="1:67">
+      <c r="A6" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="6">
+        <v>4</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="L6" s="6">
+        <v>5</v>
+      </c>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="O6" s="6">
+        <v>5</v>
+      </c>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="R6" s="6">
+        <v>5</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="U6" s="6">
+        <v>5</v>
+      </c>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="X6" s="6">
+        <v>5</v>
+      </c>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA6" s="6">
+        <v>5</v>
+      </c>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD6" s="6">
+        <v>5</v>
+      </c>
+      <c r="AE6" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF6" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG6" s="6">
+        <v>5</v>
+      </c>
+      <c r="AH6" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI6" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ6" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK6" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL6" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM6" s="6">
+        <v>5</v>
+      </c>
+      <c r="AN6" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO6" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP6" s="6">
+        <v>5</v>
+      </c>
+      <c r="AQ6" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR6" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS6" s="6">
+        <v>5</v>
+      </c>
+      <c r="AT6" s="6"/>
+      <c r="AU6" s="6"/>
+      <c r="AV6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="6"/>
+      <c r="AX6" s="6"/>
+      <c r="AY6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="6"/>
+      <c r="BA6" s="6"/>
+      <c r="BB6" s="6">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="6"/>
+      <c r="BD6" s="6"/>
+      <c r="BE6" s="6">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="6"/>
+      <c r="BG6" s="6"/>
+      <c r="BH6" s="6">
+        <v>0</v>
+      </c>
+      <c r="BI6" s="6"/>
+      <c r="BJ6" s="6"/>
+      <c r="BK6" s="6">
+        <v>0</v>
+      </c>
+      <c r="BL6" s="6"/>
+      <c r="BM6" s="6"/>
+      <c r="BN6" s="6">
+        <v>0</v>
+      </c>
+      <c r="BO6" s="6"/>
+    </row>
+    <row r="7" spans="1:67">
+      <c r="A7" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="6">
+        <v>5</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="6">
+        <v>5</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" s="6">
+        <v>5</v>
+      </c>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="O7" s="6">
+        <v>5</v>
+      </c>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="R7" s="6">
+        <v>5</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="U7" s="6">
+        <v>5</v>
+      </c>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="X7" s="6">
+        <v>5</v>
+      </c>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA7" s="6">
+        <v>5</v>
+      </c>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD7" s="6">
+        <v>5</v>
+      </c>
+      <c r="AE7" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF7" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG7" s="6">
+        <v>5</v>
+      </c>
+      <c r="AH7" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI7" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ7" s="6">
+        <v>5</v>
+      </c>
+      <c r="AK7" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL7" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM7" s="6">
+        <v>5</v>
+      </c>
+      <c r="AN7" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO7" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP7" s="6">
+        <v>5</v>
+      </c>
+      <c r="AQ7" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR7" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS7" s="6">
+        <v>5</v>
+      </c>
+      <c r="AT7" s="6"/>
+      <c r="AU7" s="6"/>
+      <c r="AV7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="6"/>
+      <c r="AX7" s="6"/>
+      <c r="AY7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="6"/>
+      <c r="BA7" s="6"/>
+      <c r="BB7" s="6">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="6"/>
+      <c r="BD7" s="6"/>
+      <c r="BE7" s="6">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="6"/>
+      <c r="BG7" s="6"/>
+      <c r="BH7" s="6">
+        <v>0</v>
+      </c>
+      <c r="BI7" s="6"/>
+      <c r="BJ7" s="6"/>
+      <c r="BK7" s="6">
+        <v>0</v>
+      </c>
+      <c r="BL7" s="6"/>
+      <c r="BM7" s="6"/>
+      <c r="BN7" s="6">
+        <v>0</v>
+      </c>
+      <c r="BO7" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/bin/reviews/source/UA.xlsx
+++ b/bin/reviews/source/UA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="127">
   <si>
     <t>name</t>
   </si>
@@ -395,6 +395,9 @@
   </si>
   <si>
     <t>4 Покупал тут замечательные тетрадки!</t>
+  </si>
+  <si>
+    <t>4 Дмитрий Субботин</t>
   </si>
 </sst>
 </file>
@@ -771,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BO7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1752,8 +1755,8 @@
         <v>5</v>
       </c>
       <c r="P7" s="6"/>
-      <c r="Q7" s="6" t="s">
-        <v>98</v>
+      <c r="Q7" s="7" t="s">
+        <v>126</v>
       </c>
       <c r="R7" s="6">
         <v>5</v>
